--- a/source_code/data/chp.xlsx
+++ b/source_code/data/chp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D5BC30-31D9-4EE7-A7E7-E8BD441647F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EF8D3F-08CA-4100-B3F5-FA6DC18714C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30840" yWindow="2280" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
         <v>2.8</v>
       </c>
       <c r="F2">
-        <v>1100000</v>
+        <v>1210000</v>
       </c>
     </row>
   </sheetData>
@@ -472,7 +472,8 @@
         <v>2.8</v>
       </c>
       <c r="F2">
-        <v>1045000</v>
+        <f>'2025'!F2*(1-0.1*0.2)</f>
+        <v>1185800</v>
       </c>
     </row>
   </sheetData>
@@ -525,7 +526,8 @@
         <v>2.8</v>
       </c>
       <c r="F2">
-        <v>992750</v>
+        <f>'2025'!F2*(1-0.1*0.4)</f>
+        <v>1161600</v>
       </c>
     </row>
   </sheetData>
@@ -578,7 +580,8 @@
         <v>2.8</v>
       </c>
       <c r="F2">
-        <v>943112.5</v>
+        <f>'2025'!F2*(1-0.1*0.6)</f>
+        <v>1137400</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +634,8 @@
         <v>2.8</v>
       </c>
       <c r="F2">
-        <v>895956.875</v>
+        <f>'2025'!F2*(1-0.1*0.8)</f>
+        <v>1113200</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +688,8 @@
         <v>2.8</v>
       </c>
       <c r="F2">
-        <v>851159.03130000003</v>
+        <f>'2025'!F2*(1-0.1*1)</f>
+        <v>1089000</v>
       </c>
     </row>
   </sheetData>
